--- a/table.xlsx
+++ b/table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,50 +436,41 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Число серий</t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I1" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J1" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K1" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" t="n">
-        <v>13</v>
-      </c>
-      <c r="O1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
@@ -489,53 +480,48 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>30.56</v>
       </c>
       <c r="C2" t="n">
-        <v>3.13</v>
+        <v>61.59</v>
       </c>
       <c r="D2" t="n">
-        <v>6.88</v>
+        <v>109.72</v>
       </c>
       <c r="E2" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="F2" t="n">
-        <v>27.41</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>233</v>
-      </c>
-      <c r="I2" t="n">
-        <v>312</v>
+        <v>145.71</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" t="n">
-        <v>167</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -548,46 +534,77 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>384</v>
+        <v>14</v>
       </c>
       <c r="L3" t="n">
-        <v>139</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4499</v>
-      </c>
-      <c r="N3" t="n">
-        <v>478</v>
-      </c>
-      <c r="O3" t="n">
-        <v>414</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Время обнаружения ЛТ</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>505</v>
+      </c>
+      <c r="C4" t="n">
+        <v>506</v>
+      </c>
+      <c r="D4" t="n">
+        <v>507</v>
+      </c>
+      <c r="E4" t="n">
+        <v>508</v>
+      </c>
+      <c r="F4" t="n">
+        <v>509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>510</v>
+      </c>
+      <c r="H4" t="n">
+        <v>511</v>
+      </c>
+      <c r="I4" t="n">
+        <v>512</v>
+      </c>
+      <c r="J4" t="n">
+        <v>513</v>
+      </c>
+      <c r="K4" t="n">
+        <v>514</v>
+      </c>
+      <c r="L4" t="n">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Число серий</t>
+          <t>Длина серии</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -476,30 +476,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Тлт</t>
+          <t>Среднее время между ложными тревогами</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.56</v>
+        <v>62.21</v>
       </c>
       <c r="C2" t="n">
-        <v>61.59</v>
+        <v>125.88</v>
       </c>
       <c r="D2" t="n">
-        <v>109.72</v>
+        <v>256.02</v>
       </c>
       <c r="E2" t="n">
-        <v>145.71</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>505.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>923.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1253.9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -530,7 +526,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Tзап</t>
+          <t>Среднее время запаздывания</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -570,41 +566,41 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Время обнаружения ЛТ</t>
+          <t>Номер такта обнаружения разладки</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>505</v>
+        <v>5005</v>
       </c>
       <c r="C4" t="n">
-        <v>506</v>
+        <v>5006</v>
       </c>
       <c r="D4" t="n">
-        <v>507</v>
+        <v>5007</v>
       </c>
       <c r="E4" t="n">
-        <v>508</v>
+        <v>5008</v>
       </c>
       <c r="F4" t="n">
-        <v>509</v>
+        <v>5009</v>
       </c>
       <c r="G4" t="n">
-        <v>510</v>
+        <v>5010</v>
       </c>
       <c r="H4" t="n">
-        <v>511</v>
+        <v>5011</v>
       </c>
       <c r="I4" t="n">
-        <v>512</v>
+        <v>5012</v>
       </c>
       <c r="J4" t="n">
-        <v>513</v>
+        <v>5013</v>
       </c>
       <c r="K4" t="n">
-        <v>514</v>
+        <v>5014</v>
       </c>
       <c r="L4" t="n">
-        <v>515</v>
+        <v>5015</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,21 +457,6 @@
       <c r="G1" t="n">
         <v>10</v>
       </c>
-      <c r="H1" t="n">
-        <v>11</v>
-      </c>
-      <c r="I1" t="n">
-        <v>12</v>
-      </c>
-      <c r="J1" t="n">
-        <v>13</v>
-      </c>
-      <c r="K1" t="n">
-        <v>14</v>
-      </c>
-      <c r="L1" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -479,45 +464,32 @@
           <t>Среднее время между ложными тревогами</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>62.21</v>
-      </c>
-      <c r="C2" t="n">
-        <v>125.88</v>
-      </c>
-      <c r="D2" t="n">
-        <v>256.02</v>
-      </c>
-      <c r="E2" t="n">
-        <v>505.72</v>
-      </c>
-      <c r="F2" t="n">
-        <v>923.98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1253.9</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -530,37 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>12</v>
-      </c>
-      <c r="J3" t="n">
-        <v>13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14</v>
-      </c>
-      <c r="L3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -570,37 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5005</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>5006</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5007</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>5009</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5010</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5011</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5012</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5013</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5014</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5015</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,22 +440,31 @@
         </is>
       </c>
       <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
         <v>5</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>6</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>7</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>8</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>9</v>
       </c>
-      <c r="G1" t="n">
+      <c r="H1" t="n">
         <v>10</v>
+      </c>
+      <c r="I1" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -464,35 +473,32 @@
           <t>Среднее время между ложными тревогами</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="B2" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="C2" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.93</v>
+      </c>
+      <c r="E2" t="n">
+        <v>258.12</v>
+      </c>
+      <c r="F2" t="n">
+        <v>514.34</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1020</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2040.67</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3213.09</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3508.1</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +508,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +542,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15004</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>15005</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15006</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>15007</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>15008</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>15009</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15010</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15011</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15012</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,22 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" t="n">
-        <v>9</v>
-      </c>
-      <c r="H1" t="n">
         <v>10</v>
-      </c>
-      <c r="I1" t="n">
-        <v>11</v>
-      </c>
-      <c r="J1" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -474,31 +465,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30.01</v>
+        <v>68.84</v>
       </c>
       <c r="C2" t="n">
-        <v>62.1</v>
+        <v>138.2</v>
       </c>
       <c r="D2" t="n">
-        <v>126.93</v>
+        <v>275.29</v>
       </c>
       <c r="E2" t="n">
-        <v>258.12</v>
+        <v>575.53</v>
       </c>
       <c r="F2" t="n">
-        <v>514.34</v>
+        <v>1115.31</v>
       </c>
       <c r="G2" t="n">
-        <v>1020</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2040.67</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3213.09</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3508.1</v>
+        <v>1336.51</v>
       </c>
     </row>
     <row r="3">
@@ -508,31 +490,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,31 +515,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15004</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15005</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>15006</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>15007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>15008</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15009</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15010</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>15012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sheet_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet_1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,103 +434,237 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Длина серии</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="D1" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="E1" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="F1" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G1" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="H1" t="n">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C1" t="n">
+      <c r="C2" t="n">
+        <v>24.26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="E2" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="D1" t="n">
+      <c r="C3" t="n">
+        <v>31.35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.74</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
         <v>7</v>
       </c>
-      <c r="E1" t="n">
+      <c r="C4" t="n">
+        <v>41.89</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.37</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="F1" t="n">
+      <c r="C5" t="n">
+        <v>54.46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11.68</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="G1" t="n">
+      <c r="C6" t="n">
+        <v>81.27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>46.13</v>
+      </c>
+      <c r="E6" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Среднее время между ложными тревогами</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>68.84</v>
-      </c>
-      <c r="C2" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>275.29</v>
-      </c>
-      <c r="E2" t="n">
-        <v>575.53</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1115.31</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1336.51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Среднее время запаздывания</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Номер такта обнаружения разладки</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.23</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>188.72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>30.79</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>12.56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>233.12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>99.97</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.72</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.65</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -441,22 +441,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="n">
-        <v>13.21</v>
+        <v>13.19</v>
       </c>
       <c r="D1" t="n">
-        <v>9.449999999999999</v>
+        <v>10.22</v>
       </c>
       <c r="E1" t="n">
-        <v>6.16</v>
+        <v>5.66</v>
       </c>
       <c r="F1" t="n">
-        <v>4.55</v>
+        <v>4.79</v>
       </c>
       <c r="G1" t="n">
-        <v>4.17</v>
+        <v>4.3</v>
       </c>
       <c r="H1" t="n">
-        <v>4.04</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="2">
@@ -467,22 +467,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>24.26</v>
+        <v>21.32</v>
       </c>
       <c r="D2" t="n">
-        <v>14.37</v>
+        <v>14.05</v>
       </c>
       <c r="E2" t="n">
-        <v>8.789999999999999</v>
+        <v>7.41</v>
       </c>
       <c r="F2" t="n">
-        <v>6.09</v>
+        <v>5.72</v>
       </c>
       <c r="G2" t="n">
-        <v>5.41</v>
+        <v>5.32</v>
       </c>
       <c r="H2" t="n">
-        <v>5.07</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3">
@@ -493,22 +493,22 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>31.35</v>
+        <v>28.76</v>
       </c>
       <c r="D3" t="n">
-        <v>19.74</v>
+        <v>18.47</v>
       </c>
       <c r="E3" t="n">
-        <v>11.6</v>
+        <v>11.36</v>
       </c>
       <c r="F3" t="n">
-        <v>7.79</v>
+        <v>7.63</v>
       </c>
       <c r="G3" t="n">
-        <v>6.37</v>
+        <v>6.55</v>
       </c>
       <c r="H3" t="n">
-        <v>6.22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -519,22 +519,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>41.89</v>
+        <v>41.33</v>
       </c>
       <c r="D4" t="n">
-        <v>26.37</v>
+        <v>27.58</v>
       </c>
       <c r="E4" t="n">
-        <v>13.95</v>
+        <v>12.76</v>
       </c>
       <c r="F4" t="n">
-        <v>8.58</v>
+        <v>9.08</v>
       </c>
       <c r="G4" t="n">
-        <v>7.22</v>
+        <v>7.26</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>7.13</v>
       </c>
     </row>
     <row r="5">
@@ -545,22 +545,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>54.46</v>
+        <v>59.91</v>
       </c>
       <c r="D5" t="n">
-        <v>38.04</v>
+        <v>36.49</v>
       </c>
       <c r="E5" t="n">
-        <v>16.19</v>
+        <v>16.38</v>
       </c>
       <c r="F5" t="n">
-        <v>11.68</v>
+        <v>10.65</v>
       </c>
       <c r="G5" t="n">
-        <v>8.69</v>
+        <v>8.74</v>
       </c>
       <c r="H5" t="n">
-        <v>8.16</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -571,22 +571,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>81.27</v>
+        <v>85.98</v>
       </c>
       <c r="D6" t="n">
-        <v>46.13</v>
+        <v>39.3</v>
       </c>
       <c r="E6" t="n">
-        <v>17.69</v>
+        <v>19.52</v>
       </c>
       <c r="F6" t="n">
-        <v>12.02</v>
+        <v>11.16</v>
       </c>
       <c r="G6" t="n">
-        <v>10.15</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>9.31</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>98.40000000000001</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>70.23</v>
+        <v>61.94</v>
       </c>
       <c r="E7" t="n">
-        <v>22.05</v>
+        <v>23.43</v>
       </c>
       <c r="F7" t="n">
-        <v>13.52</v>
+        <v>13.73</v>
       </c>
       <c r="G7" t="n">
-        <v>11.95</v>
+        <v>11.49</v>
       </c>
       <c r="H7" t="n">
-        <v>10.4</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>188.72</v>
+        <v>173.59</v>
       </c>
       <c r="D8" t="n">
-        <v>77.34999999999999</v>
+        <v>85.67</v>
       </c>
       <c r="E8" t="n">
-        <v>30.79</v>
+        <v>26.49</v>
       </c>
       <c r="F8" t="n">
-        <v>14.5</v>
+        <v>15.03</v>
       </c>
       <c r="G8" t="n">
-        <v>12.56</v>
+        <v>11.71</v>
       </c>
       <c r="H8" t="n">
-        <v>11.25</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="9">
@@ -649,22 +649,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>233.12</v>
+        <v>231.51</v>
       </c>
       <c r="D9" t="n">
-        <v>99.97</v>
+        <v>98.7</v>
       </c>
       <c r="E9" t="n">
-        <v>32.72</v>
+        <v>32.05</v>
       </c>
       <c r="F9" t="n">
-        <v>18.65</v>
+        <v>19.73</v>
       </c>
       <c r="G9" t="n">
-        <v>13.43</v>
+        <v>13.01</v>
       </c>
       <c r="H9" t="n">
-        <v>12.65</v>
+        <v>12.45</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -441,22 +441,22 @@
         <v>4</v>
       </c>
       <c r="C1" t="n">
-        <v>13.19</v>
+        <v>5.1</v>
       </c>
       <c r="D1" t="n">
-        <v>10.22</v>
+        <v>4.3</v>
       </c>
       <c r="E1" t="n">
-        <v>5.66</v>
+        <v>4</v>
       </c>
       <c r="F1" t="n">
-        <v>4.79</v>
+        <v>4</v>
       </c>
       <c r="G1" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="H1" t="n">
-        <v>4.06</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -467,22 +467,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>21.32</v>
+        <v>7.4</v>
       </c>
       <c r="D2" t="n">
-        <v>14.05</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>7.41</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>5.72</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.32</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -493,19 +493,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>28.76</v>
+        <v>7.5</v>
       </c>
       <c r="D3" t="n">
-        <v>18.47</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>11.36</v>
+        <v>6</v>
       </c>
       <c r="F3" t="n">
-        <v>7.63</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>6.55</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
         <v>6</v>
@@ -519,22 +519,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>41.33</v>
+        <v>11.6</v>
       </c>
       <c r="D4" t="n">
-        <v>27.58</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>12.76</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>9.08</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>7.26</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>7.13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -545,22 +545,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>59.91</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>36.49</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>16.38</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>10.65</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.74</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>8.220000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -571,22 +571,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>85.98</v>
+        <v>12.4</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>19.52</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>11.16</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>9.710000000000001</v>
+        <v>9</v>
       </c>
       <c r="H6" t="n">
-        <v>9.210000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>96.06999999999999</v>
+        <v>13.1</v>
       </c>
       <c r="D7" t="n">
-        <v>61.94</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>23.43</v>
+        <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>13.73</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>11.49</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -623,22 +623,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>173.59</v>
+        <v>12.4</v>
       </c>
       <c r="D8" t="n">
-        <v>85.67</v>
+        <v>11.7</v>
       </c>
       <c r="E8" t="n">
-        <v>26.49</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>15.03</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>11.71</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>11.16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -649,22 +649,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>231.51</v>
+        <v>13.6</v>
       </c>
       <c r="D9" t="n">
-        <v>98.7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>32.05</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>19.73</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>13.01</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>12.45</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/table.xlsx
+++ b/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" t="n">
+        <v>21.29</v>
+      </c>
+      <c r="D1" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="E1" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="F1" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G1" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H1" t="n">
         <v>5.1</v>
-      </c>
-      <c r="D1" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H1" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
@@ -464,25 +464,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>7.4</v>
+        <v>30.34</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>19.55</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>10.8</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>6.46</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="3">
@@ -490,25 +490,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5</v>
+        <v>44.92</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>25.86</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>12.57</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>9.25</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>7.58</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="4">
@@ -516,25 +516,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>11.6</v>
+        <v>61.06</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>36.29</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>16.18</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>10.82</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>8.74</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -542,25 +542,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>8.800000000000001</v>
+        <v>92.14</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>47.76</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>19.15</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>12.41</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>10.06</v>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9.26</v>
       </c>
     </row>
     <row r="6">
@@ -568,103 +568,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>12.4</v>
+        <v>129.67</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>56.55</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>24.77</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>14.39</v>
       </c>
       <c r="G6" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>11</v>
-      </c>
-      <c r="F8" t="n">
-        <v>11</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12</v>
-      </c>
-      <c r="G9" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" t="n">
-        <v>12</v>
+        <v>10.32</v>
       </c>
     </row>
   </sheetData>
